--- a/tests/testthat/fixtures/ex3/tables/distractors_summary.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/distractors_summary.xlsx
@@ -616,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1573</v>
+        <v>1612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="3">
@@ -630,10 +630,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.398</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +644,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.299</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.396</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="6">
@@ -672,10 +672,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="7">
@@ -686,10 +686,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D7" t="n">
-        <v>0.474</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="8">
@@ -700,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.441</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="9">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="D9" t="n">
-        <v>0.524</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
@@ -728,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.405</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="11">
@@ -742,10 +742,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.505</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="12">
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D12" t="n">
-        <v>0.416</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="13">
@@ -770,10 +770,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D13" t="n">
-        <v>0.466</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="14">
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.504</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="15">
@@ -798,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.479</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="16">
@@ -812,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.541</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="17">
@@ -826,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D17" t="n">
-        <v>0.509</v>
+        <v>0.496</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.184</v>
+        <v>-0.227</v>
       </c>
     </row>
     <row r="3">
@@ -882,10 +882,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.187</v>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="4">
@@ -896,10 +896,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.182</v>
+        <v>-0.233</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.213</v>
+        <v>-0.298</v>
       </c>
     </row>
     <row r="6">
@@ -924,10 +924,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.147</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="7">
@@ -938,10 +938,10 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.173</v>
+        <v>-0.209</v>
       </c>
     </row>
     <row r="8">
@@ -952,10 +952,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.101</v>
+        <v>-0.161</v>
       </c>
     </row>
     <row r="9">
@@ -966,10 +966,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.109</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="10">
@@ -980,10 +980,10 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.048</v>
+        <v>-0.085</v>
       </c>
     </row>
     <row r="11">
@@ -997,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.182</v>
+        <v>-0.237</v>
       </c>
     </row>
     <row r="12">
@@ -1008,10 +1008,10 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.236</v>
+        <v>-0.238</v>
       </c>
     </row>
     <row r="13">
@@ -1025,7 +1025,7 @@
         <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.204</v>
+        <v>-0.203</v>
       </c>
     </row>
     <row r="14">
@@ -1036,10 +1036,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.204</v>
+        <v>-0.192</v>
       </c>
     </row>
     <row r="15">
@@ -1050,10 +1050,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.207</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="16">
@@ -1064,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.239</v>
+        <v>-0.216</v>
       </c>
     </row>
     <row r="17">
@@ -1078,10 +1078,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.314</v>
+        <v>-0.302</v>
       </c>
     </row>
     <row r="18">
@@ -1092,10 +1092,10 @@
         <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.198</v>
+        <v>-0.225</v>
       </c>
     </row>
     <row r="19">
@@ -1106,10 +1106,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.189</v>
+        <v>-0.214</v>
       </c>
     </row>
     <row r="20">
@@ -1120,10 +1120,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.207</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="21">
@@ -1134,10 +1134,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.226</v>
+        <v>-0.245</v>
       </c>
     </row>
     <row r="22">
@@ -1148,10 +1148,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.216</v>
+        <v>-0.238</v>
       </c>
     </row>
     <row r="23">
@@ -1162,10 +1162,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.297</v>
+        <v>-0.266</v>
       </c>
     </row>
     <row r="24">
@@ -1176,10 +1176,10 @@
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.226</v>
+        <v>-0.238</v>
       </c>
     </row>
     <row r="25">
@@ -1190,10 +1190,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.251</v>
+        <v>-0.249</v>
       </c>
     </row>
     <row r="26">
@@ -1204,10 +1204,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.197</v>
+        <v>-0.236</v>
       </c>
     </row>
     <row r="27">
@@ -1218,10 +1218,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.203</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="28">
@@ -1232,10 +1232,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.166</v>
+        <v>-0.232</v>
       </c>
     </row>
     <row r="29">
@@ -1246,10 +1246,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.247</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="30">
@@ -1260,10 +1260,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.187</v>
+        <v>-0.199</v>
       </c>
     </row>
     <row r="31">
@@ -1274,10 +1274,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.252</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="32">
@@ -1288,10 +1288,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.173</v>
+        <v>-0.227</v>
       </c>
     </row>
     <row r="33">
@@ -1302,10 +1302,10 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.183</v>
+        <v>-0.166</v>
       </c>
     </row>
     <row r="34">
@@ -1319,7 +1319,7 @@
         <v>101</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.188</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="35">
@@ -1330,10 +1330,10 @@
         <v>27</v>
       </c>
       <c r="C35" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.184</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="36">
@@ -1344,10 +1344,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.202</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="37">
@@ -1358,10 +1358,10 @@
         <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.188</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="38">
@@ -1372,10 +1372,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.16</v>
+        <v>-0.166</v>
       </c>
     </row>
     <row r="39">
@@ -1389,7 +1389,7 @@
         <v>132</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.205</v>
+        <v>-0.196</v>
       </c>
     </row>
     <row r="40">
@@ -1400,10 +1400,10 @@
         <v>29</v>
       </c>
       <c r="C40" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.246</v>
+        <v>-0.256</v>
       </c>
     </row>
     <row r="41">
@@ -1414,10 +1414,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.167</v>
+        <v>-0.174</v>
       </c>
     </row>
     <row r="42">
@@ -1428,10 +1428,10 @@
         <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.167</v>
+        <v>-0.171</v>
       </c>
     </row>
     <row r="43">
@@ -1442,10 +1442,10 @@
         <v>32</v>
       </c>
       <c r="C43" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.236</v>
+        <v>-0.232</v>
       </c>
     </row>
     <row r="44">
@@ -1456,10 +1456,10 @@
         <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.119</v>
+        <v>-0.124</v>
       </c>
     </row>
     <row r="45">
@@ -1470,10 +1470,10 @@
         <v>27</v>
       </c>
       <c r="C45" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         <v>152</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.231</v>
+        <v>-0.241</v>
       </c>
     </row>
     <row r="47">
@@ -1498,10 +1498,10 @@
         <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.177</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="48">
@@ -1512,10 +1512,10 @@
         <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.171</v>
+        <v>-0.164</v>
       </c>
     </row>
     <row r="49">
@@ -1526,10 +1526,10 @@
         <v>29</v>
       </c>
       <c r="C49" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.144</v>
+        <v>-0.151</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +1562,10 @@
         <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>0.445</v>
+        <v>0.484</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.194</v>
+        <v>-0.212</v>
       </c>
     </row>
     <row r="3">
@@ -1573,10 +1573,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>0.068</v>
+        <v>0.038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4">
@@ -1584,10 +1584,10 @@
         <v>80</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454</v>
+        <v>0.494</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.193</v>
+        <v>-0.226</v>
       </c>
     </row>
     <row r="5">
@@ -1595,10 +1595,10 @@
         <v>81</v>
       </c>
       <c r="B5" t="n">
-        <v>0.299</v>
+        <v>0.411</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.314</v>
+        <v>-0.302</v>
       </c>
     </row>
     <row r="6">
@@ -1606,10 +1606,10 @@
         <v>82</v>
       </c>
       <c r="B6" t="n">
-        <v>0.541</v>
+        <v>0.536</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.048</v>
+        <v>-0.085</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/ex3/tables/distractors_summary.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/distractors_summary.xlsx
@@ -619,7 +619,7 @@
         <v>1612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.442</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         <v>926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         <v>256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.411</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="5">
@@ -661,7 +661,7 @@
         <v>499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.428</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="6">
@@ -675,7 +675,7 @@
         <v>475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.419</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -689,7 +689,7 @@
         <v>420</v>
       </c>
       <c r="D7" t="n">
-        <v>0.501</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +703,7 @@
         <v>404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.478</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9">
@@ -717,7 +717,7 @@
         <v>431</v>
       </c>
       <c r="D9" t="n">
-        <v>0.51</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="10">
@@ -731,7 +731,7 @@
         <v>356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.516</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="11">
@@ -745,7 +745,7 @@
         <v>318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.513</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         <v>270</v>
       </c>
       <c r="D12" t="n">
-        <v>0.491</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="13">
@@ -773,7 +773,7 @@
         <v>206</v>
       </c>
       <c r="D13" t="n">
-        <v>0.485</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="14">
@@ -787,7 +787,7 @@
         <v>266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.508</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="15">
@@ -801,7 +801,7 @@
         <v>254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.484</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="16">
@@ -815,7 +815,7 @@
         <v>179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.536</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="17">
@@ -829,7 +829,7 @@
         <v>156</v>
       </c>
       <c r="D17" t="n">
-        <v>0.496</v>
+        <v>0.521</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +871,7 @@
         <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.227</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="3">
@@ -885,7 +885,7 @@
         <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.252</v>
+        <v>-0.266</v>
       </c>
     </row>
     <row r="4">
@@ -899,7 +899,7 @@
         <v>121</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.233</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>337</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.298</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="6">
@@ -927,7 +927,7 @@
         <v>299</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.186</v>
+        <v>-0.199</v>
       </c>
     </row>
     <row r="7">
@@ -941,7 +941,7 @@
         <v>300</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.209</v>
+        <v>-0.222</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>357</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.161</v>
+        <v>-0.167</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         <v>390</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.115</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="10">
@@ -983,7 +983,7 @@
         <v>376</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.085</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="11">
@@ -997,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.237</v>
+        <v>-0.251</v>
       </c>
     </row>
     <row r="12">
@@ -1011,7 +1011,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.238</v>
+        <v>-0.253</v>
       </c>
     </row>
     <row r="13">
@@ -1025,7 +1025,7 @@
         <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.203</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="14">
@@ -1039,7 +1039,7 @@
         <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.192</v>
+        <v>-0.207</v>
       </c>
     </row>
     <row r="15">
@@ -1053,7 +1053,7 @@
         <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.24</v>
+        <v>-0.256</v>
       </c>
     </row>
     <row r="16">
@@ -1067,7 +1067,7 @@
         <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.216</v>
+        <v>-0.233</v>
       </c>
     </row>
     <row r="17">
@@ -1081,7 +1081,7 @@
         <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.302</v>
+        <v>-0.318</v>
       </c>
     </row>
     <row r="18">
@@ -1095,7 +1095,7 @@
         <v>63</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.225</v>
+        <v>-0.239</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.214</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="20">
@@ -1123,7 +1123,7 @@
         <v>90</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.219</v>
+        <v>-0.236</v>
       </c>
     </row>
     <row r="21">
@@ -1137,7 +1137,7 @@
         <v>85</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.245</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="22">
@@ -1151,7 +1151,7 @@
         <v>69</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.238</v>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="23">
@@ -1165,7 +1165,7 @@
         <v>81</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.266</v>
+        <v>-0.279</v>
       </c>
     </row>
     <row r="24">
@@ -1179,7 +1179,7 @@
         <v>79</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.238</v>
+        <v>-0.251</v>
       </c>
     </row>
     <row r="25">
@@ -1193,7 +1193,7 @@
         <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.249</v>
+        <v>-0.262</v>
       </c>
     </row>
     <row r="26">
@@ -1207,7 +1207,7 @@
         <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.236</v>
+        <v>-0.248</v>
       </c>
     </row>
     <row r="27">
@@ -1221,7 +1221,7 @@
         <v>113</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.254</v>
+        <v>-0.268</v>
       </c>
     </row>
     <row r="28">
@@ -1235,7 +1235,7 @@
         <v>84</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.232</v>
+        <v>-0.244</v>
       </c>
     </row>
     <row r="29">
@@ -1249,7 +1249,7 @@
         <v>109</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.23</v>
+        <v>-0.243</v>
       </c>
     </row>
     <row r="30">
@@ -1263,7 +1263,7 @@
         <v>95</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.199</v>
+        <v>-0.211</v>
       </c>
     </row>
     <row r="31">
@@ -1277,7 +1277,7 @@
         <v>101</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.265</v>
+        <v>-0.277</v>
       </c>
     </row>
     <row r="32">
@@ -1291,7 +1291,7 @@
         <v>116</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.227</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="33">
@@ -1305,7 +1305,7 @@
         <v>80</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.166</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="34">
@@ -1319,7 +1319,7 @@
         <v>101</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.25</v>
+        <v>-0.262</v>
       </c>
     </row>
     <row r="35">
@@ -1333,7 +1333,7 @@
         <v>98</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.186</v>
+        <v>-0.198</v>
       </c>
     </row>
     <row r="36">
@@ -1347,7 +1347,7 @@
         <v>93</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.193</v>
+        <v>-0.204</v>
       </c>
     </row>
     <row r="37">
@@ -1361,7 +1361,7 @@
         <v>88</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.231</v>
+        <v>-0.241</v>
       </c>
     </row>
     <row r="38">
@@ -1375,7 +1375,7 @@
         <v>122</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.166</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="39">
@@ -1389,7 +1389,7 @@
         <v>132</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.196</v>
+        <v>-0.208</v>
       </c>
     </row>
     <row r="40">
@@ -1403,7 +1403,7 @@
         <v>151</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.256</v>
+        <v>-0.268</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>139</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.174</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="42">
@@ -1431,7 +1431,7 @@
         <v>138</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.171</v>
+        <v>-0.183</v>
       </c>
     </row>
     <row r="43">
@@ -1445,7 +1445,7 @@
         <v>147</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.232</v>
+        <v>-0.243</v>
       </c>
     </row>
     <row r="44">
@@ -1459,7 +1459,7 @@
         <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.124</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="45">
@@ -1473,7 +1473,7 @@
         <v>186</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.186</v>
+        <v>-0.196</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         <v>152</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.241</v>
+        <v>-0.248</v>
       </c>
     </row>
     <row r="47">
@@ -1501,7 +1501,7 @@
         <v>167</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.163</v>
+        <v>-0.171</v>
       </c>
     </row>
     <row r="48">
@@ -1515,7 +1515,7 @@
         <v>179</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.164</v>
+        <v>-0.172</v>
       </c>
     </row>
     <row r="49">
@@ -1529,7 +1529,7 @@
         <v>174</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.151</v>
+        <v>-0.159</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +1562,10 @@
         <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484</v>
+        <v>0.511</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.212</v>
+        <v>-0.224</v>
       </c>
     </row>
     <row r="3">
@@ -1573,10 +1573,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="4">
@@ -1584,10 +1584,10 @@
         <v>80</v>
       </c>
       <c r="B4" t="n">
-        <v>0.494</v>
+        <v>0.52</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.226</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="5">
@@ -1595,10 +1595,10 @@
         <v>81</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411</v>
+        <v>0.435</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.302</v>
+        <v>-0.318</v>
       </c>
     </row>
     <row r="6">
@@ -1606,10 +1606,10 @@
         <v>82</v>
       </c>
       <c r="B6" t="n">
-        <v>0.536</v>
+        <v>0.56</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.085</v>
+        <v>-0.092</v>
       </c>
     </row>
   </sheetData>
